--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Icam2-Itgam.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Icam2-Itgam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>50.17403933333333</v>
+        <v>46.595173</v>
       </c>
       <c r="H2">
-        <v>150.522118</v>
+        <v>139.785519</v>
       </c>
       <c r="I2">
-        <v>0.7978131386685359</v>
+        <v>0.7981698877785356</v>
       </c>
       <c r="J2">
-        <v>0.797813138668536</v>
+        <v>0.7981698877785355</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,22 +564,22 @@
         <v>0.428169</v>
       </c>
       <c r="O2">
-        <v>0.0004707902754357479</v>
+        <v>0.0009642800942465787</v>
       </c>
       <c r="P2">
-        <v>0.0004707902754357478</v>
+        <v>0.0009642800942465787</v>
       </c>
       <c r="Q2">
-        <v>7.160989415771333</v>
+        <v>6.650202876079</v>
       </c>
       <c r="R2">
-        <v>64.448904741942</v>
+        <v>59.851825884711</v>
       </c>
       <c r="S2">
-        <v>0.0003756026673000185</v>
+        <v>0.0007696593346118674</v>
       </c>
       <c r="T2">
-        <v>0.0003756026673000185</v>
+        <v>0.0007696593346118673</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>50.17403933333333</v>
+        <v>46.595173</v>
       </c>
       <c r="H3">
-        <v>150.522118</v>
+        <v>139.785519</v>
       </c>
       <c r="I3">
-        <v>0.7978131386685359</v>
+        <v>0.7981698877785356</v>
       </c>
       <c r="J3">
-        <v>0.797813138668536</v>
+        <v>0.7981698877785355</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>148.0881626666667</v>
+        <v>86.42780700000002</v>
       </c>
       <c r="N3">
-        <v>444.264488</v>
+        <v>259.283421</v>
       </c>
       <c r="O3">
-        <v>0.4884879584272602</v>
+        <v>0.5839326098770704</v>
       </c>
       <c r="P3">
-        <v>0.4884879584272601</v>
+        <v>0.5839326098770704</v>
       </c>
       <c r="Q3">
-        <v>7430.181298438399</v>
+        <v>4027.118619175611</v>
       </c>
       <c r="R3">
-        <v>66871.63168594558</v>
+        <v>36244.0675725805</v>
       </c>
       <c r="S3">
-        <v>0.3897221113146377</v>
+        <v>0.4660774256958087</v>
       </c>
       <c r="T3">
-        <v>0.3897221113146377</v>
+        <v>0.4660774256958086</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>50.17403933333333</v>
+        <v>46.595173</v>
       </c>
       <c r="H4">
-        <v>150.522118</v>
+        <v>139.785519</v>
       </c>
       <c r="I4">
-        <v>0.7978131386685359</v>
+        <v>0.7981698877785356</v>
       </c>
       <c r="J4">
-        <v>0.797813138668536</v>
+        <v>0.7981698877785355</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>154.9253336666667</v>
+        <v>0.006361333333333333</v>
       </c>
       <c r="N4">
-        <v>464.776001</v>
+        <v>0.019084</v>
       </c>
       <c r="O4">
-        <v>0.5110412512973043</v>
+        <v>4.297910712499435E-05</v>
       </c>
       <c r="P4">
-        <v>0.5110412512973042</v>
+        <v>4.297910712499435E-05</v>
       </c>
       <c r="Q4">
-        <v>7773.229785121124</v>
+        <v>0.2964074271773333</v>
       </c>
       <c r="R4">
-        <v>69959.06806609011</v>
+        <v>2.667666844596</v>
       </c>
       <c r="S4">
-        <v>0.4077154246865983</v>
+        <v>3.43046291107784E-05</v>
       </c>
       <c r="T4">
-        <v>0.4077154246865983</v>
+        <v>3.430462911077839E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.656685</v>
+        <v>46.595173</v>
       </c>
       <c r="H5">
-        <v>4.970055</v>
+        <v>139.785519</v>
       </c>
       <c r="I5">
-        <v>0.02634280749959451</v>
+        <v>0.7981698877785356</v>
       </c>
       <c r="J5">
-        <v>0.02634280749959451</v>
+        <v>0.7981698877785355</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.142723</v>
+        <v>61.43300833333333</v>
       </c>
       <c r="N5">
-        <v>0.428169</v>
+        <v>184.299025</v>
       </c>
       <c r="O5">
-        <v>0.0004707902754357479</v>
+        <v>0.415060130921558</v>
       </c>
       <c r="P5">
-        <v>0.0004707902754357478</v>
+        <v>0.415060130921558</v>
       </c>
       <c r="Q5">
-        <v>0.236447053255</v>
+        <v>2862.481651202108</v>
       </c>
       <c r="R5">
-        <v>2.128023479295</v>
+        <v>25762.33486081897</v>
       </c>
       <c r="S5">
-        <v>1.240193759848499E-05</v>
+        <v>0.3312884981190042</v>
       </c>
       <c r="T5">
-        <v>1.240193759848498E-05</v>
+        <v>0.3312884981190042</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,40 +794,40 @@
         <v>4.970055</v>
       </c>
       <c r="I6">
-        <v>0.02634280749959451</v>
+        <v>0.02837882113957134</v>
       </c>
       <c r="J6">
-        <v>0.02634280749959451</v>
+        <v>0.02837882113957133</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>148.0881626666667</v>
+        <v>0.142723</v>
       </c>
       <c r="N6">
-        <v>444.264488</v>
+        <v>0.428169</v>
       </c>
       <c r="O6">
-        <v>0.4884879584272602</v>
+        <v>0.0009642800942465787</v>
       </c>
       <c r="P6">
-        <v>0.4884879584272601</v>
+        <v>0.0009642800942465787</v>
       </c>
       <c r="Q6">
-        <v>245.3354377674267</v>
+        <v>0.2364470532550001</v>
       </c>
       <c r="R6">
-        <v>2208.01893990684</v>
+        <v>2.128023479295</v>
       </c>
       <c r="S6">
-        <v>0.01286814425471924</v>
+        <v>2.736513232307265E-05</v>
       </c>
       <c r="T6">
-        <v>0.01286814425471924</v>
+        <v>2.736513232307264E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>4.970055</v>
       </c>
       <c r="I7">
-        <v>0.02634280749959451</v>
+        <v>0.02837882113957134</v>
       </c>
       <c r="J7">
-        <v>0.02634280749959451</v>
+        <v>0.02837882113957133</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,33 +868,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>154.9253336666667</v>
+        <v>86.42780700000002</v>
       </c>
       <c r="N7">
-        <v>464.776001</v>
+        <v>259.283421</v>
       </c>
       <c r="O7">
-        <v>0.5110412512973043</v>
+        <v>0.5839326098770704</v>
       </c>
       <c r="P7">
-        <v>0.5110412512973042</v>
+        <v>0.5839326098770704</v>
       </c>
       <c r="Q7">
-        <v>256.6624764055617</v>
+        <v>143.183651439795</v>
       </c>
       <c r="R7">
-        <v>2309.962287650055</v>
+        <v>1288.652862958155</v>
       </c>
       <c r="S7">
-        <v>0.01346226130727679</v>
+        <v>0.01657131909326447</v>
       </c>
       <c r="T7">
-        <v>0.01346226130727679</v>
+        <v>0.01657131909326446</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.722579</v>
+        <v>1.656685</v>
       </c>
       <c r="H8">
-        <v>14.167737</v>
+        <v>4.970055</v>
       </c>
       <c r="I8">
-        <v>0.07509332763840293</v>
+        <v>0.02837882113957134</v>
       </c>
       <c r="J8">
-        <v>0.07509332763840293</v>
+        <v>0.02837882113957133</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -930,33 +930,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.142723</v>
+        <v>0.006361333333333333</v>
       </c>
       <c r="N8">
-        <v>0.428169</v>
+        <v>0.019084</v>
       </c>
       <c r="O8">
-        <v>0.0004707902754357479</v>
+        <v>4.297910712499435E-05</v>
       </c>
       <c r="P8">
-        <v>0.0004707902754357478</v>
+        <v>4.297910712499435E-05</v>
       </c>
       <c r="Q8">
-        <v>0.6740206426169999</v>
+        <v>0.01053872551333333</v>
       </c>
       <c r="R8">
-        <v>6.066185783552999</v>
+        <v>0.09484852962000001</v>
       </c>
       <c r="S8">
-        <v>3.535320840227058E-05</v>
+        <v>1.219696393838691E-06</v>
       </c>
       <c r="T8">
-        <v>3.535320840227057E-05</v>
+        <v>1.21969639383869E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.722579</v>
+        <v>1.656685</v>
       </c>
       <c r="H9">
-        <v>14.167737</v>
+        <v>4.970055</v>
       </c>
       <c r="I9">
-        <v>0.07509332763840293</v>
+        <v>0.02837882113957134</v>
       </c>
       <c r="J9">
-        <v>0.07509332763840293</v>
+        <v>0.02837882113957133</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>148.0881626666667</v>
+        <v>61.43300833333333</v>
       </c>
       <c r="N9">
-        <v>444.264488</v>
+        <v>184.299025</v>
       </c>
       <c r="O9">
-        <v>0.4884879584272602</v>
+        <v>0.415060130921558</v>
       </c>
       <c r="P9">
-        <v>0.4884879584272601</v>
+        <v>0.415060130921558</v>
       </c>
       <c r="Q9">
-        <v>699.358047158184</v>
+        <v>101.7751434107083</v>
       </c>
       <c r="R9">
-        <v>6294.222424423656</v>
+        <v>915.976290696375</v>
       </c>
       <c r="S9">
-        <v>0.03668218630959279</v>
+        <v>0.01177891721758996</v>
       </c>
       <c r="T9">
-        <v>0.03668218630959279</v>
+        <v>0.01177891721758995</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.722579</v>
+        <v>5.966798333333333</v>
       </c>
       <c r="H10">
-        <v>14.167737</v>
+        <v>17.900395</v>
       </c>
       <c r="I10">
-        <v>0.07509332763840293</v>
+        <v>0.102210560654294</v>
       </c>
       <c r="J10">
-        <v>0.07509332763840293</v>
+        <v>0.1022105606542939</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>154.9253336666667</v>
+        <v>0.142723</v>
       </c>
       <c r="N10">
-        <v>464.776001</v>
+        <v>0.428169</v>
       </c>
       <c r="O10">
-        <v>0.5110412512973043</v>
+        <v>0.0009642800942465787</v>
       </c>
       <c r="P10">
-        <v>0.5110412512973042</v>
+        <v>0.0009642800942465787</v>
       </c>
       <c r="Q10">
-        <v>731.6471273421929</v>
+        <v>0.8515993585283335</v>
       </c>
       <c r="R10">
-        <v>6584.824146079736</v>
+        <v>7.664394226755</v>
       </c>
       <c r="S10">
-        <v>0.03837578812040787</v>
+        <v>9.855960906071823E-05</v>
       </c>
       <c r="T10">
-        <v>0.03837578812040787</v>
+        <v>9.855960906071822E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,61 +1098,61 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.828283</v>
+        <v>5.966798333333333</v>
       </c>
       <c r="H11">
-        <v>2.484849</v>
+        <v>17.900395</v>
       </c>
       <c r="I11">
-        <v>0.01317045764534999</v>
+        <v>0.102210560654294</v>
       </c>
       <c r="J11">
-        <v>0.01317045764534999</v>
+        <v>0.1022105606542939</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.142723</v>
+        <v>86.42780700000002</v>
       </c>
       <c r="N11">
-        <v>0.428169</v>
+        <v>259.283421</v>
       </c>
       <c r="O11">
-        <v>0.0004707902754357479</v>
+        <v>0.5839326098770704</v>
       </c>
       <c r="P11">
-        <v>0.0004707902754357478</v>
+        <v>0.5839326098770704</v>
       </c>
       <c r="Q11">
-        <v>0.118215034609</v>
+        <v>515.6972947612551</v>
       </c>
       <c r="R11">
-        <v>1.063935311481</v>
+        <v>4641.275652851295</v>
       </c>
       <c r="S11">
-        <v>6.200523382469172E-06</v>
+        <v>0.05968407943986048</v>
       </c>
       <c r="T11">
-        <v>6.200523382469171E-06</v>
+        <v>0.05968407943986047</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
         <v>3</v>
       </c>
@@ -1160,51 +1160,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.828283</v>
+        <v>5.966798333333333</v>
       </c>
       <c r="H12">
-        <v>2.484849</v>
+        <v>17.900395</v>
       </c>
       <c r="I12">
-        <v>0.01317045764534999</v>
+        <v>0.102210560654294</v>
       </c>
       <c r="J12">
-        <v>0.01317045764534999</v>
+        <v>0.1022105606542939</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>148.0881626666667</v>
+        <v>0.006361333333333333</v>
       </c>
       <c r="N12">
-        <v>444.264488</v>
+        <v>0.019084</v>
       </c>
       <c r="O12">
-        <v>0.4884879584272602</v>
+        <v>4.297910712499435E-05</v>
       </c>
       <c r="P12">
-        <v>0.4884879584272601</v>
+        <v>4.297910712499435E-05</v>
       </c>
       <c r="Q12">
-        <v>122.6589076380347</v>
+        <v>0.03795679313111111</v>
       </c>
       <c r="R12">
-        <v>1103.930168742312</v>
+        <v>0.34161113818</v>
       </c>
       <c r="S12">
-        <v>0.006433609966729715</v>
+        <v>4.392918635666633E-06</v>
       </c>
       <c r="T12">
-        <v>0.006433609966729714</v>
+        <v>4.392918635666632E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.828283</v>
+        <v>5.966798333333333</v>
       </c>
       <c r="H13">
-        <v>2.484849</v>
+        <v>17.900395</v>
       </c>
       <c r="I13">
-        <v>0.01317045764534999</v>
+        <v>0.102210560654294</v>
       </c>
       <c r="J13">
-        <v>0.01317045764534999</v>
+        <v>0.1022105606542939</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,33 +1240,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>154.9253336666667</v>
+        <v>61.43300833333333</v>
       </c>
       <c r="N13">
-        <v>464.776001</v>
+        <v>184.299025</v>
       </c>
       <c r="O13">
-        <v>0.5110412512973043</v>
+        <v>0.415060130921558</v>
       </c>
       <c r="P13">
-        <v>0.5110412512973042</v>
+        <v>0.415060130921558</v>
       </c>
       <c r="Q13">
-        <v>128.3220201454277</v>
+        <v>366.5583717349861</v>
       </c>
       <c r="R13">
-        <v>1154.898181308849</v>
+        <v>3299.025345614875</v>
       </c>
       <c r="S13">
-        <v>0.006730647155237805</v>
+        <v>0.04242352868673709</v>
       </c>
       <c r="T13">
-        <v>0.006730647155237804</v>
+        <v>0.04242352868673709</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.507876</v>
+        <v>0.4842143333333333</v>
       </c>
       <c r="H14">
-        <v>16.523628</v>
+        <v>1.452643</v>
       </c>
       <c r="I14">
-        <v>0.08758026854811665</v>
+        <v>0.008294535146321381</v>
       </c>
       <c r="J14">
-        <v>0.08758026854811667</v>
+        <v>0.008294535146321381</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1308,27 +1308,27 @@
         <v>0.428169</v>
       </c>
       <c r="O14">
-        <v>0.0004707902754357479</v>
+        <v>0.0009642800942465787</v>
       </c>
       <c r="P14">
-        <v>0.0004707902754357478</v>
+        <v>0.0009642800942465787</v>
       </c>
       <c r="Q14">
-        <v>0.786100586348</v>
+        <v>0.06910852229633334</v>
       </c>
       <c r="R14">
-        <v>7.074905277132</v>
+        <v>0.6219767006669999</v>
       </c>
       <c r="S14">
-        <v>4.123193875250461E-05</v>
+        <v>7.998255132626341E-06</v>
       </c>
       <c r="T14">
-        <v>4.123193875250461E-05</v>
+        <v>7.998255132626341E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.507876</v>
+        <v>0.4842143333333333</v>
       </c>
       <c r="H15">
-        <v>16.523628</v>
+        <v>1.452643</v>
       </c>
       <c r="I15">
-        <v>0.08758026854811665</v>
+        <v>0.008294535146321381</v>
       </c>
       <c r="J15">
-        <v>0.08758026854811667</v>
+        <v>0.008294535146321381</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,90 +1364,400 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>148.0881626666667</v>
+        <v>86.42780700000002</v>
       </c>
       <c r="N15">
-        <v>444.264488</v>
+        <v>259.283421</v>
       </c>
       <c r="O15">
-        <v>0.4884879584272602</v>
+        <v>0.5839326098770704</v>
       </c>
       <c r="P15">
-        <v>0.4884879584272601</v>
+        <v>0.5839326098770704</v>
       </c>
       <c r="Q15">
-        <v>815.6512370358295</v>
+        <v>41.84958294796701</v>
       </c>
       <c r="R15">
-        <v>7340.861133322465</v>
+        <v>376.646246531703</v>
       </c>
       <c r="S15">
-        <v>0.04278190658158069</v>
+        <v>0.004843449555708532</v>
       </c>
       <c r="T15">
-        <v>0.04278190658158069</v>
+        <v>0.004843449555708532</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.4842143333333333</v>
+      </c>
+      <c r="H16">
+        <v>1.452643</v>
+      </c>
+      <c r="I16">
+        <v>0.008294535146321381</v>
+      </c>
+      <c r="J16">
+        <v>0.008294535146321381</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.006361333333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.019084</v>
+      </c>
+      <c r="O16">
+        <v>4.297910712499435E-05</v>
+      </c>
+      <c r="P16">
+        <v>4.297910712499435E-05</v>
+      </c>
+      <c r="Q16">
+        <v>0.003080248779111111</v>
+      </c>
+      <c r="R16">
+        <v>0.027722239012</v>
+      </c>
+      <c r="S16">
+        <v>3.564917146057773E-07</v>
+      </c>
+      <c r="T16">
+        <v>3.564917146057773E-07</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.4842143333333333</v>
+      </c>
+      <c r="H17">
+        <v>1.452643</v>
+      </c>
+      <c r="I17">
+        <v>0.008294535146321381</v>
+      </c>
+      <c r="J17">
+        <v>0.008294535146321381</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>61.43300833333333</v>
+      </c>
+      <c r="N17">
+        <v>184.299025</v>
+      </c>
+      <c r="O17">
+        <v>0.415060130921558</v>
+      </c>
+      <c r="P17">
+        <v>0.415060130921558</v>
+      </c>
+      <c r="Q17">
+        <v>29.74674317478611</v>
+      </c>
+      <c r="R17">
+        <v>267.720688573075</v>
+      </c>
+      <c r="S17">
+        <v>0.003442730843765616</v>
+      </c>
+      <c r="T17">
+        <v>0.003442730843765616</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>5.507876</v>
-      </c>
-      <c r="H16">
-        <v>16.523628</v>
-      </c>
-      <c r="I16">
-        <v>0.08758026854811665</v>
-      </c>
-      <c r="J16">
-        <v>0.08758026854811667</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>154.9253336666667</v>
-      </c>
-      <c r="N16">
-        <v>464.776001</v>
-      </c>
-      <c r="O16">
-        <v>0.5110412512973043</v>
-      </c>
-      <c r="P16">
-        <v>0.5110412512973042</v>
-      </c>
-      <c r="Q16">
-        <v>853.3095270946253</v>
-      </c>
-      <c r="R16">
-        <v>7679.785743851628</v>
-      </c>
-      <c r="S16">
-        <v>0.04475713002778348</v>
-      </c>
-      <c r="T16">
-        <v>0.04475713002778347</v>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>3.674642333333333</v>
+      </c>
+      <c r="H18">
+        <v>11.023927</v>
+      </c>
+      <c r="I18">
+        <v>0.0629461952812778</v>
+      </c>
+      <c r="J18">
+        <v>0.0629461952812778</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.142723</v>
+      </c>
+      <c r="N18">
+        <v>0.428169</v>
+      </c>
+      <c r="O18">
+        <v>0.0009642800942465787</v>
+      </c>
+      <c r="P18">
+        <v>0.0009642800942465787</v>
+      </c>
+      <c r="Q18">
+        <v>0.5244559777403334</v>
+      </c>
+      <c r="R18">
+        <v>4.720103799663001</v>
+      </c>
+      <c r="S18">
+        <v>6.069776311829411E-05</v>
+      </c>
+      <c r="T18">
+        <v>6.069776311829411E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>3.674642333333333</v>
+      </c>
+      <c r="H19">
+        <v>11.023927</v>
+      </c>
+      <c r="I19">
+        <v>0.0629461952812778</v>
+      </c>
+      <c r="J19">
+        <v>0.0629461952812778</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>86.42780700000002</v>
+      </c>
+      <c r="N19">
+        <v>259.283421</v>
+      </c>
+      <c r="O19">
+        <v>0.5839326098770704</v>
+      </c>
+      <c r="P19">
+        <v>0.5839326098770704</v>
+      </c>
+      <c r="Q19">
+        <v>317.5912783793631</v>
+      </c>
+      <c r="R19">
+        <v>2858.321505414267</v>
+      </c>
+      <c r="S19">
+        <v>0.03675633609242828</v>
+      </c>
+      <c r="T19">
+        <v>0.03675633609242828</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>3.674642333333333</v>
+      </c>
+      <c r="H20">
+        <v>11.023927</v>
+      </c>
+      <c r="I20">
+        <v>0.0629461952812778</v>
+      </c>
+      <c r="J20">
+        <v>0.0629461952812778</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.006361333333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.019084</v>
+      </c>
+      <c r="O20">
+        <v>4.297910712499435E-05</v>
+      </c>
+      <c r="P20">
+        <v>4.297910712499435E-05</v>
+      </c>
+      <c r="Q20">
+        <v>0.02337562476311111</v>
+      </c>
+      <c r="R20">
+        <v>0.210380622868</v>
+      </c>
+      <c r="S20">
+        <v>2.705371270104853E-06</v>
+      </c>
+      <c r="T20">
+        <v>2.705371270104853E-06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>3.674642333333333</v>
+      </c>
+      <c r="H21">
+        <v>11.023927</v>
+      </c>
+      <c r="I21">
+        <v>0.0629461952812778</v>
+      </c>
+      <c r="J21">
+        <v>0.0629461952812778</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>61.43300833333333</v>
+      </c>
+      <c r="N21">
+        <v>184.299025</v>
+      </c>
+      <c r="O21">
+        <v>0.415060130921558</v>
+      </c>
+      <c r="P21">
+        <v>0.415060130921558</v>
+      </c>
+      <c r="Q21">
+        <v>225.7443330856861</v>
+      </c>
+      <c r="R21">
+        <v>2031.698997771175</v>
+      </c>
+      <c r="S21">
+        <v>0.02612645605446112</v>
+      </c>
+      <c r="T21">
+        <v>0.02612645605446112</v>
       </c>
     </row>
   </sheetData>
